--- a/data/entity_data.xlsx
+++ b/data/entity_data.xlsx
@@ -9,7 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$202</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="259">
   <si>
     <t xml:space="preserve">column_names</t>
   </si>
@@ -73,7 +77,7 @@
     <t xml:space="preserve">Sales, Currency</t>
   </si>
   <si>
-    <t xml:space="preserve">sales, value</t>
+    <t xml:space="preserve">sale, value</t>
   </si>
   <si>
     <t xml:space="preserve">units sold</t>
@@ -806,7 +810,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -834,6 +838,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -886,13 +898,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -904,7 +924,21 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF343434"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,16 +948,16 @@
   </sheetPr>
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B202" activeCellId="0" sqref="B202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,10 +967,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3275,12 +3309,1172 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D202"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B202"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>